--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2064755.876534031</v>
+        <v>2062868.295017628</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>316.578988699947</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>121.0959809713491</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>395.8935665691976</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>375.0144873718714</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>274.4246847141214</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497986</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>67.17471341392792</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>49.15010423076791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>75.06705067831034</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.3004401226183</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>98.00807076326753</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>159.2465967971094</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9700322506493</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>108.3588681544791</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1796758467005</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>224.8952567231522</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.14085215535421</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002184</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>25.08199534320792</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571498</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3010,13 +3010,13 @@
         <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>197.7624846937571</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789486</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4373,7 +4373,7 @@
         <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4419,13 +4419,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172734</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,40 +4647,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1580.775345511218</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.812828570806</v>
+        <v>593.1569710713181</v>
       </c>
       <c r="D8" t="n">
-        <v>853.5471299640558</v>
+        <v>593.1569710713181</v>
       </c>
       <c r="E8" t="n">
-        <v>467.7588773658115</v>
+        <v>593.1569710713181</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>586.2114703221147</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018224</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018224</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.91467748703</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511218</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.9427820820321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>222.9427820820321</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>222.9427820820321</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9427820820321</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>222.9427820820321</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>450.9323329800494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>222.9427820820321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.9427820820321</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,52 +5036,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643321</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899124</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775531</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834047</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262959</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655741</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="X13" t="n">
-        <v>616.0394035985448</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y13" t="n">
-        <v>395.2468244550147</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="14">
@@ -5261,61 +5261,61 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H15" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.777852827703</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341668</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653859</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.0423951757509</v>
+        <v>807.0580565471712</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>807.0580565471712</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>656.9414171348354</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429512</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>354.6908600059907</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X16" t="n">
-        <v>354.6908600059905</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="Y16" t="n">
-        <v>354.6908600059905</v>
+        <v>988.7065213774109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>665.6859735286129</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C19" t="n">
-        <v>496.7497906007059</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>346.6331511883701</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>346.6331511883702</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>346.6331511883702</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655735</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286129</v>
+        <v>825.1470682810581</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286129</v>
+        <v>597.1575173830407</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.6859735286129</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,13 +5765,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405894</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
         <v>244.1070389581962</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570735</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570735</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>711.072954880832</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.072954880832</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,28 +6224,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>860.730102085161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1432.107328986838</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1432.107328986838</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.107328986838</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1432.107328986838</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.107328986838</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.107328986838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.314749843307</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6458,13 +6458,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,13 +6482,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227169</v>
+        <v>494.8466681110215</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761807</v>
+        <v>469.5113192794987</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452158</v>
+        <v>375.1555451485337</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441934</v>
+        <v>283.0033168475114</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276538</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276538</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>936.5766481882326</v>
+        <v>957.9946671386963</v>
       </c>
       <c r="X31" t="n">
-        <v>764.3479625715859</v>
+        <v>785.7659815220497</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715859</v>
+        <v>620.7342676598904</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6716,19 +6716,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,16 +6774,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7002,25 +7002,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
@@ -7181,25 +7181,25 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7324,10 +7324,10 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,28 +7476,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978419</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298398</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.70036832296</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229573</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>32.78140656352423</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,10 +10905,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>219.0626389846494</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>176.5595511582692</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>92.1797704203175</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.13352252395091</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>68.48549770011009</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>127.2764015394816</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>6.267320147928073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.350787234558</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>14.74113413690279</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.82350024843855</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338484</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>86.96156912686287</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>33.55725701427684</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>867392.8693883913</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883915</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>867392.8693883914</v>
+        <v>867392.8693883913</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>867392.8693883915</v>
+        <v>867392.8693883914</v>
       </c>
     </row>
     <row r="11">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117845</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590213</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590215</v>
@@ -26332,28 +26332,28 @@
         <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
+        <v>508337.7776590215</v>
+      </c>
+      <c r="J2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590218</v>
       </c>
       <c r="K2" t="n">
         <v>528868.7785488506</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="M2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768956</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>4.419501919983305e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.171927646024903e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284558</v>
+        <v>44162.60530284544</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.6053028458</v>
       </c>
     </row>
     <row r="4">
@@ -26424,22 +26424,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007593</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007459</v>
+        <v>7916.731656007543</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007457</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007494</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020401</v>
@@ -26448,13 +26448,13 @@
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.518897328</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287066.8555820904</v>
+        <v>-287066.8555820906</v>
       </c>
       <c r="C6" t="n">
+        <v>302901.0236324542</v>
+      </c>
+      <c r="D6" t="n">
         <v>302901.023632454</v>
       </c>
-      <c r="D6" t="n">
-        <v>302901.0236324543</v>
-      </c>
       <c r="E6" t="n">
-        <v>-116726.3164225987</v>
+        <v>-116823.7755485703</v>
       </c>
       <c r="F6" t="n">
-        <v>408433.7200542974</v>
+        <v>408336.2609283249</v>
       </c>
       <c r="G6" t="n">
-        <v>408433.7200542972</v>
+        <v>408336.2609283247</v>
       </c>
       <c r="H6" t="n">
-        <v>408433.7200542975</v>
+        <v>408336.2609283253</v>
       </c>
       <c r="I6" t="n">
-        <v>408433.7200542975</v>
+        <v>408336.2609283251</v>
       </c>
       <c r="J6" t="n">
-        <v>232010.5008617051</v>
+        <v>231913.0417357323</v>
       </c>
       <c r="K6" t="n">
-        <v>361996.6105455782</v>
+        <v>361978.116807644</v>
       </c>
       <c r="L6" t="n">
-        <v>395283.6188935645</v>
+        <v>395283.6188935641</v>
       </c>
       <c r="M6" t="n">
-        <v>270825.510460594</v>
+        <v>270825.5104605941</v>
       </c>
       <c r="N6" t="n">
         <v>405626.5256944309</v>
       </c>
       <c r="O6" t="n">
-        <v>405626.5256944311</v>
+        <v>405626.5256944312</v>
       </c>
       <c r="P6" t="n">
-        <v>361463.9203915856</v>
+        <v>361463.9203915852</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.13599502905133e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26722,7 +26722,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26738,34 +26738,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054540997</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054540997</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,20 +26966,20 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370131</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>5.684341886080801e-13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.714909557531129e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855697</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98948845797264</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90.29705704176439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>186.936793745735</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>285.7800647703623</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>10.98247917251388</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>38.76968264892355</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,13 +27907,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>12.09831362246962</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.363549356232397e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33503,7 +33503,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33512,10 +33512,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33527,7 +33527,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958082</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004659</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178374</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956024</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.124745373426</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415661</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411079</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>282.0391115195485</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,7 +37233,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37625,10 +37625,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>438.0705020605312</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
@@ -38187,13 +38187,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
